--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P23_trail5 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P23_trail5 Features.xlsx
@@ -724,7 +724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,29 +735,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="21" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -778,115 +776,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -903,72 +891,66 @@
         <v>6.493611892000334e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.2802860356193713</v>
+        <v>2.90820361146467e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.014022235622565</v>
+        <v>8.085428935869526e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.90820361146467e-06</v>
+        <v>0.03102346970485475</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>8.085428935869526e-06</v>
+        <v>0.2392318332543511</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.03102346970485475</v>
+        <v>0.05811759287200226</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2392318332543511</v>
+        <v>1.81889646322283</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.05811759287200226</v>
+        <v>1.773630901546372</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.768800510984702</v>
+        <v>4.306441741708549</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.773630901546372</v>
+        <v>1.650633768223484e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.306441741708549</v>
+        <v>33709072.14591076</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.650633768223484e-14</v>
+        <v>3.505675839073856e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>33709072.14591076</v>
+        <v>18.75617700959536</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.505675839073856e-06</v>
+        <v>0.0001612143082561037</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>18.75617700959536</v>
+        <v>9.913937777255885</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001612143082561037</v>
+        <v>1.160035898166662</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.913937777255885</v>
+        <v>0.01584513565849072</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.160035898166662</v>
+        <v>2.736285394805351</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01584513565849072</v>
+        <v>0.9582657355383857</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.736285394805351</v>
+        <v>1.653260574038432</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9582657355383857</v>
+        <v>35</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.653260574038432</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1944713903647573</v>
       </c>
     </row>
@@ -983,72 +965,66 @@
         <v>6.266063830645192e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.4315355440065147</v>
+        <v>2.249450814872628e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.215849707014587</v>
+        <v>8.09988503940662e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.249450814872628e-06</v>
+        <v>0.0145718123532213</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>8.09988503940662e-06</v>
+        <v>0.2093070656337812</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.0145718123532213</v>
+        <v>0.04395973162939654</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2093070656337812</v>
+        <v>1.816903600250095</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.04395973162939654</v>
+        <v>1.781219614006094</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.76701254014206</v>
+        <v>4.303997955800011</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.781219614006094</v>
+        <v>1.652508741570417e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.303997955800011</v>
+        <v>33603401.2782964</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.652508741570417e-14</v>
+        <v>3.50552379079014e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>33603401.2782964</v>
+        <v>18.65993995150989</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.50552379079014e-06</v>
+        <v>0.0001666030463366277</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>18.65993995150989</v>
+        <v>10.36423699725881</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001666030463366277</v>
+        <v>1.146375497334683</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>10.36423699725881</v>
+        <v>0.01789606749157509</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.146375497334683</v>
+        <v>2.526518817323702</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01789606749157509</v>
+        <v>0.9584906702865564</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.526518817323702</v>
+        <v>1.651370843884011</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9584906702865564</v>
+        <v>44</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.651370843884011</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1893612340540558</v>
       </c>
     </row>
@@ -1063,72 +1039,66 @@
         <v>6.216137431805371e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.450988075299154</v>
+        <v>1.88778090443448e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.219582859764843</v>
+        <v>8.104076782905045e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.88778090443448e-06</v>
+        <v>-0.0007840373197550347</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>8.104076782905045e-06</v>
+        <v>0.1736005192056721</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.0007840373197550347</v>
+        <v>0.03008590396287279</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1736005192056721</v>
+        <v>1.808673649652177</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.03008590396287279</v>
+        <v>1.755934508696861</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.755918471802306</v>
+        <v>4.237801756955457</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.755934508696861</v>
+        <v>1.704537675572707e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.237801756955457</v>
+        <v>32557609.6240234</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.704537675572707e-14</v>
+        <v>3.615290787398826e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>32557609.6240234</v>
+        <v>18.06806432311073</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3.615290787398826e-06</v>
+        <v>0.0001637965882495172</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>18.06806432311073</v>
+        <v>9.580308423098124</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001637965882495172</v>
+        <v>1.188740656916545</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.580308423098124</v>
+        <v>0.0150336291547613</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.188740656916545</v>
+        <v>2.639058652406045</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.0150336291547613</v>
+        <v>0.9576186322787543</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.639058652406045</v>
+        <v>1.669365105626818</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9576186322787543</v>
+        <v>44</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.669365105626818</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1783055526835784</v>
       </c>
     </row>
@@ -1143,72 +1113,66 @@
         <v>6.244021573807956e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.4594336243651326</v>
+        <v>1.88778090443448e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.229118077247878</v>
+        <v>8.099202161032004e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.88778090443448e-06</v>
+        <v>-0.01439754914601567</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>8.099202161032004e-06</v>
+        <v>0.133642360128418</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.01439754914601567</v>
+        <v>0.01802833113395133</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.133642360128418</v>
+        <v>1.770624546027626</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.01802833113395133</v>
+        <v>1.75140399406176</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.70507022472893</v>
+        <v>4.155992311707267</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.75140399406176</v>
+        <v>1.772304774140419e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.155992311707267</v>
+        <v>31994160.91608268</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.772304774140419e-14</v>
+        <v>3.641305434467845e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>31994160.91608268</v>
+        <v>18.14177836422935</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>3.641305434467845e-06</v>
+        <v>0.0001675896164270298</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>18.14177836422935</v>
+        <v>8.452018054564778</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001675896164270298</v>
+        <v>1.394307745109119</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.452018054564778</v>
+        <v>0.01197203393378556</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.394307745109119</v>
+        <v>2.798742897873484</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01197203393378556</v>
+        <v>0.9581773468518722</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.798742897873484</v>
+        <v>1.708759058193808</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9581773468518722</v>
+        <v>45</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.708759058193808</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1660886307744018</v>
       </c>
     </row>
@@ -1223,72 +1187,66 @@
         <v>6.271078150322362e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.5024519885844599</v>
+        <v>1.88778090443448e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.213798602075904</v>
+        <v>8.086540011308665e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.88778090443448e-06</v>
+        <v>-0.02544505895863914</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>8.086540011308665e-06</v>
+        <v>0.09794893168028868</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.02544505895863914</v>
+        <v>0.01022082903663323</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.09794893168028868</v>
+        <v>1.751673072761849</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01022082903663323</v>
+        <v>1.831543009043665</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.686792127656392</v>
+        <v>3.936638809559416</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.831543009043665</v>
+        <v>1.97531671604862e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.936638809559416</v>
+        <v>29426339.95602632</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.97531671604862e-14</v>
+        <v>3.954798756461168e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>29426339.95602632</v>
+        <v>17.10445476765056</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>3.954798756461168e-06</v>
+        <v>0.0001667521831413894</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>17.10445476765056</v>
+        <v>8.837766181330554</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001667521831413894</v>
+        <v>1.356301939532054</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.837766181330554</v>
+        <v>0.01302436453858519</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.356301939532054</v>
+        <v>2.824340768197182</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01302436453858519</v>
+        <v>0.9572284527580854</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.824340768197182</v>
+        <v>1.737853777000694</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9572284527580854</v>
+        <v>34</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.737853777000694</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1718977093700959</v>
       </c>
     </row>
@@ -1303,72 +1261,66 @@
         <v>6.255556541458913e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.5705357930738406</v>
+        <v>1.88778090443448e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.141186974961005</v>
+        <v>8.067965358236336e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.88778090443448e-06</v>
+        <v>-0.03324576610134907</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>8.067965358236336e-06</v>
+        <v>0.07489780789184081</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.03324576610134907</v>
+        <v>0.006706522448639454</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.07489780789184081</v>
+        <v>1.730451094201269</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.006706522448639454</v>
+        <v>1.812443060640824</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.656187822228303</v>
+        <v>3.921284930591966</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.812443060640824</v>
+        <v>1.990815793935059e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.921284930591966</v>
+        <v>29109441.02021101</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.990815793935059e-14</v>
+        <v>3.984551272139863e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>29109441.02021101</v>
+        <v>16.8693678824021</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>3.984551272139863e-06</v>
+        <v>0.0001630447315903458</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>16.8693678824021</v>
+        <v>10.21248303660628</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001630447315903458</v>
+        <v>1.200825656581846</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>10.21248303660628</v>
+        <v>0.01700471926570023</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.200825656581846</v>
+        <v>2.699708500392442</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01700471926570023</v>
+        <v>0.957108345945323</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.699708500392442</v>
+        <v>1.710833643471851</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.957108345945323</v>
+        <v>19</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.710833643471851</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1874667262916913</v>
       </c>
     </row>
@@ -1745,7 +1697,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.439936021180243</v>
+        <v>1.425705548214342</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.166832042360349</v>
@@ -1834,7 +1786,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.435044174972458</v>
+        <v>1.416762881225058</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.151305213970722</v>
@@ -1923,7 +1875,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.43774969695872</v>
+        <v>1.416270627805883</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.192458804036443</v>
@@ -2012,7 +1964,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.437140022465492</v>
+        <v>1.414270367322985</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.145037711995704</v>
@@ -2101,7 +2053,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.443545707850742</v>
+        <v>1.419185484386378</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.19555542361344</v>
@@ -2190,7 +2142,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.443436122254037</v>
+        <v>1.421197811265419</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.131715020549422</v>
@@ -2279,7 +2231,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.445111409345448</v>
+        <v>1.420913103118464</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.176279324747644</v>
@@ -2368,7 +2320,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.45291757073748</v>
+        <v>1.424583169676354</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.09480636233606</v>
@@ -2457,7 +2409,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.451693791622048</v>
+        <v>1.422785477021578</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.154453864271354</v>
@@ -2546,7 +2498,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.450195820186387</v>
+        <v>1.422549621002351</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.176506755024634</v>
@@ -2635,7 +2587,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.464294039203359</v>
+        <v>1.434351429409435</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.09156559609149</v>
@@ -2724,7 +2676,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.469419632605193</v>
+        <v>1.441570200910103</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.14953671316584</v>
@@ -2813,7 +2765,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.455911557964618</v>
+        <v>1.425740571537256</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.17290192532233</v>
@@ -2902,7 +2854,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.466899032419813</v>
+        <v>1.449214502073342</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.12539650412819</v>
@@ -2991,7 +2943,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.519780435863709</v>
+        <v>1.510053670403581</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.22310230397391</v>
@@ -3080,7 +3032,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.546441889854688</v>
+        <v>1.531588145220693</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.228683123548597</v>
@@ -3169,7 +3121,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.564605233224472</v>
+        <v>1.552071037363188</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.415142883567132</v>
@@ -3258,7 +3210,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.571806130247934</v>
+        <v>1.55857142003527</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.315507215773163</v>
@@ -3347,7 +3299,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.577375540631941</v>
+        <v>1.567418786837638</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.436531752977933</v>
@@ -3436,7 +3388,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.568276384492156</v>
+        <v>1.560118666023344</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.377097108892936</v>
@@ -3525,7 +3477,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.57191474774302</v>
+        <v>1.558418215326063</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.326947990897802</v>
@@ -3614,7 +3566,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.568041247219818</v>
+        <v>1.557557525721245</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.458659897900334</v>
@@ -3703,7 +3655,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.573032927980774</v>
+        <v>1.562607736309538</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.469121643107647</v>
@@ -3792,7 +3744,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.567191041081819</v>
+        <v>1.555538254580746</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.373850862621495</v>
@@ -3881,7 +3833,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.560564974324689</v>
+        <v>1.551696796509818</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.532063511807272</v>
@@ -3970,7 +3922,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.575340198427373</v>
+        <v>1.565348388141885</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.544743186799101</v>
@@ -4059,7 +4011,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.58751383103659</v>
+        <v>1.578971572270756</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.187762806820022</v>
@@ -4148,7 +4100,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.6026093577333</v>
+        <v>1.606934359687858</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.713065020822754</v>
@@ -4237,7 +4189,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.551978767466069</v>
+        <v>1.560692678631964</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.283231967668769</v>
@@ -4326,7 +4278,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.549721125109996</v>
+        <v>1.561275151302125</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.220572421821982</v>
@@ -4415,7 +4367,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.546315157346289</v>
+        <v>1.557076000970437</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.294936350047208</v>
@@ -4504,7 +4456,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.529632023575813</v>
+        <v>1.544821095441099</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.330810354705702</v>
@@ -4593,7 +4545,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.533406867035605</v>
+        <v>1.546135564041359</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.315914600879946</v>
@@ -4682,7 +4634,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.528725900294592</v>
+        <v>1.540064322219908</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.282497953907435</v>
@@ -4771,7 +4723,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.519283712821974</v>
+        <v>1.526504411047037</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.261496539893825</v>
@@ -4860,7 +4812,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.512455067616532</v>
+        <v>1.519333166842708</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.358098033702774</v>
@@ -4949,7 +4901,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.516868014280949</v>
+        <v>1.530119223954056</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.401768345695396</v>
@@ -5038,7 +4990,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.521065520259453</v>
+        <v>1.534546275190284</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.343540936214777</v>
@@ -5127,7 +5079,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.514139249625829</v>
+        <v>1.525551466634721</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.404529279306552</v>
@@ -5216,7 +5168,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.50714833311847</v>
+        <v>1.517084282778233</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.369164435098298</v>
@@ -5305,7 +5257,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.495922967881784</v>
+        <v>1.501546717604896</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.276709633179731</v>
@@ -5394,7 +5346,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.487373855733841</v>
+        <v>1.488048759487412</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.31924999611403</v>
@@ -5483,7 +5435,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.478552400159498</v>
+        <v>1.476240917535667</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.269000541722365</v>
@@ -5572,7 +5524,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.528779943740604</v>
+        <v>1.51970380852941</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.659414417528258</v>
@@ -5661,7 +5613,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.524907979547316</v>
+        <v>1.514526977520428</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.706760239255194</v>
@@ -5750,7 +5702,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.522627411462476</v>
+        <v>1.507768942147664</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.494173146649358</v>
@@ -5839,7 +5791,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.533583643074847</v>
+        <v>1.519720556934032</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.649123771627723</v>
@@ -5928,7 +5880,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.530418337594301</v>
+        <v>1.516911726062802</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.510965627482469</v>
@@ -6017,7 +5969,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.525031936616931</v>
+        <v>1.508898769796613</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.601276076062655</v>
@@ -6106,7 +6058,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.524887925977405</v>
+        <v>1.511154091074973</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.497916489025064</v>
@@ -6195,7 +6147,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.531815467137123</v>
+        <v>1.512806188855081</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.671381632777308</v>
@@ -6481,7 +6433,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.492884322807392</v>
+        <v>1.502140857539432</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.484331044411523</v>
@@ -6570,7 +6522,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.452752310851495</v>
+        <v>1.471038392272584</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.128091402468998</v>
@@ -6659,7 +6611,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.459512080787</v>
+        <v>1.479960628127994</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.229270592846825</v>
@@ -6748,7 +6700,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.45154675229355</v>
+        <v>1.470703972363198</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.237726361224615</v>
@@ -6837,7 +6789,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.439615008432442</v>
+        <v>1.457459325426073</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.197781461965111</v>
@@ -6926,7 +6878,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.431079147447055</v>
+        <v>1.452424094543764</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.284261147027542</v>
@@ -7015,7 +6967,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.421952591546557</v>
+        <v>1.440340232118053</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.198435652816968</v>
@@ -7104,7 +7056,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.409986337533492</v>
+        <v>1.426152449891657</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.148532303219532</v>
@@ -7193,7 +7145,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.412308268092004</v>
+        <v>1.422170530115188</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.184253892951996</v>
@@ -7282,7 +7234,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.421404557634472</v>
+        <v>1.426172770516859</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.177431739520691</v>
@@ -7371,7 +7323,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.43639677929591</v>
+        <v>1.437202238156459</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.177076934354298</v>
@@ -7460,7 +7412,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.442515618368857</v>
+        <v>1.448166075379634</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.208915096923131</v>
@@ -7549,7 +7501,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.450025391631998</v>
+        <v>1.449948186343627</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.06140847907863</v>
@@ -7638,7 +7590,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.46478327041494</v>
+        <v>1.464428886767632</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.168568032670679</v>
@@ -7727,7 +7679,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.483202343356613</v>
+        <v>1.480633826578459</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.209493597140656</v>
@@ -7816,7 +7768,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.508718323085564</v>
+        <v>1.493258900826022</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.888415716644566</v>
@@ -7905,7 +7857,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.544800696362661</v>
+        <v>1.531237461039654</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.398743570218</v>
@@ -7994,7 +7946,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.540862276625342</v>
+        <v>1.524593656305663</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.661935000649772</v>
@@ -8083,7 +8035,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.56611934404182</v>
+        <v>1.543790671275566</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.71789249367482</v>
@@ -8172,7 +8124,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.583943876203494</v>
+        <v>1.554771249118085</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.571645455215611</v>
@@ -8261,7 +8213,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.587072305378871</v>
+        <v>1.557705177354691</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.686882280590091</v>
@@ -8350,7 +8302,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.59472545514612</v>
+        <v>1.566460622448021</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.48783749119271</v>
@@ -8439,7 +8391,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.606865169850046</v>
+        <v>1.579759767248326</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.463682259774254</v>
@@ -8528,7 +8480,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.606466691434711</v>
+        <v>1.578842768082972</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.564673097083634</v>
@@ -8617,7 +8569,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.6073253844738</v>
+        <v>1.588942067883689</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.1557573177834</v>
@@ -8706,7 +8658,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.613077403838203</v>
+        <v>1.595364986811697</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.422158792939944</v>
@@ -8795,7 +8747,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.621024500321536</v>
+        <v>1.604485731698711</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.072361963641213</v>
@@ -8884,7 +8836,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.621848102139776</v>
+        <v>1.612339418288933</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.312045053332993</v>
@@ -8973,7 +8925,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.607179386581102</v>
+        <v>1.600018359434863</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.148574896262747</v>
@@ -9062,7 +9014,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.6067033947184</v>
+        <v>1.603829608045193</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.082269104506584</v>
@@ -9151,7 +9103,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.614019685692403</v>
+        <v>1.610534639754694</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.083131249365822</v>
@@ -9240,7 +9192,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.625881797283445</v>
+        <v>1.617311866106749</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.281628061229577</v>
@@ -9329,7 +9281,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.639212791934932</v>
+        <v>1.631081859353799</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.317422995213807</v>
@@ -9418,7 +9370,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.63194575256367</v>
+        <v>1.624668290098745</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.934331603637209</v>
@@ -9507,7 +9459,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.632731092484126</v>
+        <v>1.629677927591071</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.800994626627769</v>
@@ -9596,7 +9548,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.6360006502364</v>
+        <v>1.632381562267572</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.941907318609927</v>
@@ -9685,7 +9637,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.643041781726483</v>
+        <v>1.639298253569796</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.355177317412869</v>
@@ -9774,7 +9726,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.642316809059783</v>
+        <v>1.641371799726039</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.249763554835222</v>
@@ -9863,7 +9815,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.645111445432553</v>
+        <v>1.647650714164677</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.96371411881283</v>
@@ -9952,7 +9904,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.654349320614492</v>
+        <v>1.654312878462895</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.956182364960067</v>
@@ -10041,7 +9993,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.647371229372674</v>
+        <v>1.648926724632449</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.256186593002828</v>
@@ -10130,7 +10082,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.64124927764742</v>
+        <v>1.635999930692315</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.281450936612234</v>
@@ -10219,7 +10171,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.626467747850623</v>
+        <v>1.622367678044561</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.943737895774012</v>
@@ -10308,7 +10260,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.64297383092465</v>
+        <v>1.637055043838765</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.999227028449491</v>
@@ -10397,7 +10349,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.646563346662472</v>
+        <v>1.639439493256852</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.188088796539433</v>
@@ -10486,7 +10438,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.647936010481902</v>
+        <v>1.64390578401333</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.022672880145502</v>
@@ -10575,7 +10527,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.651276279197028</v>
+        <v>1.651059307267879</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.18185854260771</v>
@@ -10664,7 +10616,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.639288544491544</v>
+        <v>1.639245793268301</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.237814223263004</v>
@@ -10753,7 +10705,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.634021457226151</v>
+        <v>1.630208291662615</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.957960295157105</v>
@@ -10842,7 +10794,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.633955216792012</v>
+        <v>1.630637673512558</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.995296985654039</v>
@@ -10931,7 +10883,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.636126416015502</v>
+        <v>1.633587215694019</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.133723787339771</v>
@@ -11217,7 +11169,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.657929794070493</v>
+        <v>1.610331906079576</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.16955895694133</v>
@@ -11306,7 +11258,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.656967311911491</v>
+        <v>1.617135598794136</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.134340656935185</v>
@@ -11395,7 +11347,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.651087044408299</v>
+        <v>1.615799623671459</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.453609246343624</v>
@@ -11484,7 +11436,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.634220501857166</v>
+        <v>1.602557400060055</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.099104807153543</v>
@@ -11573,7 +11525,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.638403889082142</v>
+        <v>1.603959014743933</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.306714616669852</v>
@@ -11662,7 +11614,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.643821863855168</v>
+        <v>1.614704469864417</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.254292352446695</v>
@@ -11751,7 +11703,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.653533352999876</v>
+        <v>1.621856792744108</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.019772743580233</v>
@@ -11840,7 +11792,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.652704626872016</v>
+        <v>1.624593844842516</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.029163049008973</v>
@@ -11929,7 +11881,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.655218880478482</v>
+        <v>1.625106109736217</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.304266922458801</v>
@@ -12018,7 +11970,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.65313780733393</v>
+        <v>1.621178897288296</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.019352540356328</v>
@@ -12107,7 +12059,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.644847866513247</v>
+        <v>1.614236267448329</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.997759709045904</v>
@@ -12196,7 +12148,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.647860385619919</v>
+        <v>1.618296253782298</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.005599425468302</v>
@@ -12285,7 +12237,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.637968435764737</v>
+        <v>1.606260022474879</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.988744907300289</v>
@@ -12374,7 +12326,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.635828454635333</v>
+        <v>1.609928537447737</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.080106838326375</v>
@@ -12463,7 +12415,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.633951718807871</v>
+        <v>1.611374244746961</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.102310936478479</v>
@@ -12552,7 +12504,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.637952428250056</v>
+        <v>1.616080839868954</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.211622143332694</v>
@@ -12641,7 +12593,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.642829874010617</v>
+        <v>1.612412511619451</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.110298083683902</v>
@@ -12730,7 +12682,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.643469905269051</v>
+        <v>1.611419879562155</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.091455656558905</v>
@@ -12819,7 +12771,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.654973564234211</v>
+        <v>1.619841587453545</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.010370043938678</v>
@@ -12908,7 +12860,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.650102978286077</v>
+        <v>1.61276171576868</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.108959725158138</v>
@@ -12997,7 +12949,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.635731131954459</v>
+        <v>1.596080351800987</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.137067103442877</v>
@@ -13086,7 +13038,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.646089195257841</v>
+        <v>1.609504387007745</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.02268620963657</v>
@@ -13175,7 +13127,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.652673983041532</v>
+        <v>1.612403557713809</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.126951521224567</v>
@@ -13264,7 +13216,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.653812069421054</v>
+        <v>1.606286682737649</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.125080775369962</v>
@@ -13353,7 +13305,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.644663893711082</v>
+        <v>1.596134286820907</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.781821411652324</v>
@@ -13442,7 +13394,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.660645246777149</v>
+        <v>1.609491318283771</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.234513558163842</v>
@@ -13531,7 +13483,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.663861509779598</v>
+        <v>1.616824220622528</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.153395927355739</v>
@@ -13620,7 +13572,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.673512299284907</v>
+        <v>1.621324892527048</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.184317916022043</v>
@@ -13709,7 +13661,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.68460766855483</v>
+        <v>1.626883634768541</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.133776710943116</v>
@@ -13798,7 +13750,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.695141861646833</v>
+        <v>1.636283273973332</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.31036094707961</v>
@@ -13887,7 +13839,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.682738955347048</v>
+        <v>1.62123607393321</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.295703448030159</v>
@@ -13976,7 +13928,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.672175077058429</v>
+        <v>1.595189244167576</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.755092479356073</v>
@@ -14065,7 +14017,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.660309786116752</v>
+        <v>1.591138120079545</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.702995876418547</v>
@@ -14154,7 +14106,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.64345043450873</v>
+        <v>1.579107100376272</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.718466603306505</v>
@@ -14243,7 +14195,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.659780524242044</v>
+        <v>1.593192315218494</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.536509485020904</v>
@@ -14332,7 +14284,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.653901536337937</v>
+        <v>1.592538159769896</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.824834105419185</v>
@@ -14421,7 +14373,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.638927995316086</v>
+        <v>1.581090695306269</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.869498713447503</v>
@@ -14510,7 +14462,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.596859149795514</v>
+        <v>1.547297933026439</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.376838993254492</v>
@@ -14599,7 +14551,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.589029199720314</v>
+        <v>1.543323575484108</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.438948861908171</v>
@@ -14688,7 +14640,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.59772883966343</v>
+        <v>1.550776344325986</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.533089709824367</v>
@@ -14777,7 +14729,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.582315934240249</v>
+        <v>1.540621483259141</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.383792382193443</v>
@@ -14866,7 +14818,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.575457000787337</v>
+        <v>1.532234347724591</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.405270263306475</v>
@@ -14955,7 +14907,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.573017223176595</v>
+        <v>1.530604359312237</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.432536233739579</v>
@@ -15044,7 +14996,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.577637951452832</v>
+        <v>1.534352279137912</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.377466589549761</v>
@@ -15133,7 +15085,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.57155703076863</v>
+        <v>1.529252698357097</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.397995471186305</v>
@@ -15222,7 +15174,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.573926378888</v>
+        <v>1.532902108396555</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.393075527892245</v>
@@ -15311,7 +15263,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.595909407675954</v>
+        <v>1.560415139242983</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.440705436353011</v>
@@ -15400,7 +15352,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.592576772701353</v>
+        <v>1.560625614772309</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.510224074668033</v>
@@ -15489,7 +15441,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.602627178897297</v>
+        <v>1.563693830343109</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.284486293160098</v>
@@ -15578,7 +15530,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.594021497881658</v>
+        <v>1.559069348494697</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.403273756082332</v>
@@ -15667,7 +15619,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.603094150597153</v>
+        <v>1.559112903151378</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.250269804542309</v>
@@ -15953,7 +15905,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.725691448397928</v>
+        <v>1.722474679777022</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.412543602073852</v>
@@ -16042,7 +15994,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.714051625627354</v>
+        <v>1.71372708283526</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.110556240518242</v>
@@ -16131,7 +16083,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.716798305138605</v>
+        <v>1.715701056967446</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.227749107582037</v>
@@ -16220,7 +16172,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.71297336328686</v>
+        <v>1.71359863301111</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.506762436822878</v>
@@ -16309,7 +16261,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.715087589681302</v>
+        <v>1.721301561512012</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.492220405375081</v>
@@ -16398,7 +16350,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.721357616379712</v>
+        <v>1.729298180133082</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.598523223713531</v>
@@ -16487,7 +16439,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.713215250129329</v>
+        <v>1.719571093333326</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.648437245925414</v>
@@ -16576,7 +16528,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.707687313755375</v>
+        <v>1.712271492390175</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.268360972503415</v>
@@ -16665,7 +16617,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.708584761166271</v>
+        <v>1.712973631494115</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.178850454317817</v>
@@ -16754,7 +16706,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.70349455480018</v>
+        <v>1.703590819885789</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.838527825838196</v>
@@ -16843,7 +16795,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.711629632307549</v>
+        <v>1.711227543181115</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.206456087019898</v>
@@ -16932,7 +16884,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.719875920712515</v>
+        <v>1.718575992416705</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.958080347942176</v>
@@ -17021,7 +16973,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.713071449391641</v>
+        <v>1.708036596440545</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.926367069076665</v>
@@ -17110,7 +17062,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.718202594866173</v>
+        <v>1.715402937816392</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.873355350798006</v>
@@ -17199,7 +17151,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.741622050615792</v>
+        <v>1.733285392634736</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.948669146995184</v>
@@ -17288,7 +17240,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.746359071372068</v>
+        <v>1.72854563100093</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.109073827235378</v>
@@ -17377,7 +17329,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.74891503099825</v>
+        <v>1.729426215102143</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.721327721555538</v>
@@ -17466,7 +17418,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.76964058574425</v>
+        <v>1.752758531721899</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.935052472770113</v>
@@ -17555,7 +17507,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.783544462209102</v>
+        <v>1.767146489634069</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.940901330189908</v>
@@ -17644,7 +17596,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.780218812712162</v>
+        <v>1.760082169488838</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.830505443345756</v>
@@ -17733,7 +17685,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.780370663707228</v>
+        <v>1.753890368521525</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.740009243115156</v>
@@ -17822,7 +17774,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.798069615303175</v>
+        <v>1.771991704831066</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.063398129877787</v>
@@ -17911,7 +17863,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.806792877645737</v>
+        <v>1.784293277481312</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.221201791972671</v>
@@ -18000,7 +17952,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.807351769888221</v>
+        <v>1.782237222080065</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.964145865009817</v>
@@ -18089,7 +18041,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.821741021744161</v>
+        <v>1.796990359315191</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.648751397127505</v>
@@ -18178,7 +18130,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.825318180592003</v>
+        <v>1.803533140252913</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.569848509474467</v>
@@ -18267,7 +18219,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.826245875373784</v>
+        <v>1.80597155647693</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.273564570506412</v>
@@ -18356,7 +18308,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.83107404342057</v>
+        <v>1.81040484483375</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.891026492260446</v>
@@ -18445,7 +18397,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.830397030756271</v>
+        <v>1.807674771740811</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.780264914726685</v>
@@ -18534,7 +18486,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.829392608658664</v>
+        <v>1.808631972531425</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.348366594899888</v>
@@ -18623,7 +18575,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.834053549758541</v>
+        <v>1.814568625549573</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.905464383672906</v>
@@ -18712,7 +18664,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.849617430607639</v>
+        <v>1.828624750903341</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.684420937254455</v>
@@ -18801,7 +18753,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.84665004956311</v>
+        <v>1.824594068187054</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.650423881677975</v>
@@ -18890,7 +18842,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.836721795482144</v>
+        <v>1.817789259582131</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.538205382463551</v>
@@ -18979,7 +18931,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.838556367809154</v>
+        <v>1.829715796038393</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.432869145402189</v>
@@ -19068,7 +19020,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.844563559749826</v>
+        <v>1.835870149812458</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.168386651030645</v>
@@ -19157,7 +19109,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.845020243570292</v>
+        <v>1.836059147425098</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.364921025450047</v>
@@ -19246,7 +19198,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.845973190728253</v>
+        <v>1.839500572487665</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.418414017598314</v>
@@ -19335,7 +19287,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.845624794741886</v>
+        <v>1.843952003519445</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.594408755832245</v>
@@ -19424,7 +19376,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.844506388885063</v>
+        <v>1.841457026947646</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.834586694989126</v>
@@ -19513,7 +19465,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.850683711970417</v>
+        <v>1.844201646871139</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.35660911223319</v>
@@ -19602,7 +19554,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.840086897826333</v>
+        <v>1.827949759480642</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.031324326519803</v>
@@ -19691,7 +19643,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.842201469282287</v>
+        <v>1.828869026034144</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.205498781586444</v>
@@ -19780,7 +19732,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.841683439331981</v>
+        <v>1.829753363645193</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.699142219628019</v>
@@ -19869,7 +19821,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.836526497681986</v>
+        <v>1.8271555467023</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.266093826934337</v>
@@ -19958,7 +19910,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.838050236507579</v>
+        <v>1.828597270266458</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.004306330171159</v>
@@ -20047,7 +19999,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.837227099411479</v>
+        <v>1.827116995898509</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.349686179640408</v>
@@ -20136,7 +20088,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.822907788452033</v>
+        <v>1.813317532779486</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.629730686777851</v>
@@ -20225,7 +20177,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.816211320693251</v>
+        <v>1.808405597086084</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.890050210371983</v>
@@ -20314,7 +20266,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.805704620254157</v>
+        <v>1.796146719563321</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.385590392984209</v>
@@ -20403,7 +20355,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.800771827853015</v>
+        <v>1.790637176247138</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.645861513555829</v>
@@ -20689,7 +20641,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.530497891028728</v>
+        <v>1.530592811571951</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.503846675519833</v>
@@ -20778,7 +20730,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.496319632773052</v>
+        <v>1.498355044209657</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.351693574511879</v>
@@ -20867,7 +20819,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.505646924060118</v>
+        <v>1.509548696525211</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.306590192532922</v>
@@ -20956,7 +20908,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.494637042348132</v>
+        <v>1.497716079802508</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.370913390697951</v>
@@ -21045,7 +20997,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.476371974896738</v>
+        <v>1.48128048532853</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.363334093965963</v>
@@ -21134,7 +21086,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.479557468768903</v>
+        <v>1.480758361033132</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.438242737643463</v>
@@ -21223,7 +21175,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.470896341986953</v>
+        <v>1.473042692603633</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.426216034220822</v>
@@ -21312,7 +21264,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.456569380901414</v>
+        <v>1.457442530777733</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.370975996203669</v>
@@ -21401,7 +21353,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.449896795161848</v>
+        <v>1.451930636700403</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.359063860094177</v>
@@ -21490,7 +21442,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.45077809202492</v>
+        <v>1.449713915258414</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.39755679816837</v>
@@ -21579,7 +21531,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.461519958205065</v>
+        <v>1.45894045381085</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.428995644514204</v>
@@ -21668,7 +21620,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.46850630955876</v>
+        <v>1.464285517364928</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.408013619690193</v>
@@ -21757,7 +21709,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.463648577605731</v>
+        <v>1.456883080364267</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.277724481260985</v>
@@ -21846,7 +21798,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.471343114637479</v>
+        <v>1.470087104454908</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.371680965029887</v>
@@ -21935,7 +21887,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.487126132346106</v>
+        <v>1.486471445517935</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.267269594318157</v>
@@ -22024,7 +21976,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.521948311761427</v>
+        <v>1.507876140611914</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.056686959477288</v>
@@ -22113,7 +22065,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.555577172457711</v>
+        <v>1.540815693207668</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.48092095038928</v>
@@ -22202,7 +22154,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.559756212804603</v>
+        <v>1.545224402950495</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.898492268250878</v>
@@ -22291,7 +22243,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.58075006407712</v>
+        <v>1.562385192182917</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.712941672456751</v>
@@ -22380,7 +22332,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.584564018133132</v>
+        <v>1.559009945512023</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.615067113217606</v>
@@ -22469,7 +22421,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.576476028992173</v>
+        <v>1.551994018457411</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.658157694092933</v>
@@ -22558,7 +22510,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.598192997663104</v>
+        <v>1.572925027716576</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.855418303366138</v>
@@ -22647,7 +22599,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.617205185953934</v>
+        <v>1.58871055523669</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.858644793667171</v>
@@ -22736,7 +22688,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.627805315794337</v>
+        <v>1.599033780376357</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.556662360738384</v>
@@ -22825,7 +22777,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.630073462354766</v>
+        <v>1.605641165013722</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.042326375379497</v>
@@ -22914,7 +22866,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.629552849423064</v>
+        <v>1.607034005532621</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.15901878040432</v>
@@ -23003,7 +22955,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.631040962295612</v>
+        <v>1.603395911510365</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.941381720225991</v>
@@ -23092,7 +23044,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.647092791536518</v>
+        <v>1.61871085489284</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.950296537229636</v>
@@ -23181,7 +23133,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.644166271426643</v>
+        <v>1.616909995689606</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.930777689314643</v>
@@ -23270,7 +23222,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.647129187810003</v>
+        <v>1.619950140862899</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.792975247376669</v>
@@ -23359,7 +23311,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.630347139755365</v>
+        <v>1.608550211907019</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.143865308747981</v>
@@ -23448,7 +23400,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.634627531803154</v>
+        <v>1.610817986486617</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.45707755074869</v>
@@ -23537,7 +23489,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.634278126192692</v>
+        <v>1.608048817902535</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.45300972213026</v>
@@ -23626,7 +23578,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.624370637832932</v>
+        <v>1.597730429853518</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.876709823291264</v>
@@ -23715,7 +23667,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.625538880161122</v>
+        <v>1.609432130315392</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.037835127589124</v>
@@ -23804,7 +23756,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.642541976908145</v>
+        <v>1.622466130854734</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.032730918172785</v>
@@ -23893,7 +23845,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.650723591219279</v>
+        <v>1.627498625752453</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.295910377666745</v>
@@ -23982,7 +23934,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.649834201413448</v>
+        <v>1.631197595445329</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.161109078044242</v>
@@ -24071,7 +24023,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.650792060297024</v>
+        <v>1.63438177042352</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.174282782601245</v>
@@ -24160,7 +24112,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.643218288907731</v>
+        <v>1.629959292530641</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.273786685650385</v>
@@ -24249,7 +24201,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.648439175308287</v>
+        <v>1.636454385344993</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.223600383123265</v>
@@ -24338,7 +24290,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.634365526816903</v>
+        <v>1.629856408045969</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.202312410105362</v>
@@ -24427,7 +24379,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.62824105655821</v>
+        <v>1.618946318318129</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.173209153227698</v>
@@ -24516,7 +24468,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.633661034532043</v>
+        <v>1.622008073844967</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.308906439133718</v>
@@ -24605,7 +24557,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.631309327394506</v>
+        <v>1.616893091827083</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.292828046458719</v>
@@ -24694,7 +24646,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.628093958756595</v>
+        <v>1.613694600755769</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.19467345048814</v>
@@ -24783,7 +24735,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.634951057335821</v>
+        <v>1.622789108736324</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.094548915701066</v>
@@ -24872,7 +24824,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.632545751231403</v>
+        <v>1.617050516768701</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.150261387020625</v>
@@ -24961,7 +24913,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.630820770176713</v>
+        <v>1.619542377188425</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.870228022922718</v>
@@ -25050,7 +25002,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.620901074178071</v>
+        <v>1.608072772850055</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.242049613809057</v>
@@ -25139,7 +25091,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.612473873279847</v>
+        <v>1.604583930981349</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.21480330163178</v>
@@ -25425,7 +25377,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.56896562980039</v>
+        <v>1.596195583769559</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.979994150387332</v>
@@ -25514,7 +25466,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.558565834507591</v>
+        <v>1.585478281036654</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.581306011665445</v>
@@ -25603,7 +25555,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.578087448908805</v>
+        <v>1.603433959148053</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.949941695512749</v>
@@ -25692,7 +25644,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.579710607841601</v>
+        <v>1.61331146603713</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.92134838499821</v>
@@ -25781,7 +25733,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.582665344114478</v>
+        <v>1.616564139443714</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.71474176022115</v>
@@ -25870,7 +25822,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.617185263450615</v>
+        <v>1.654121751598399</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.924482408412693</v>
@@ -25959,7 +25911,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.60261935691932</v>
+        <v>1.636357969110268</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.834633343183426</v>
@@ -26048,7 +26000,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.584156354481851</v>
+        <v>1.621812564622577</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.701538065583764</v>
@@ -26137,7 +26089,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.5787643707767</v>
+        <v>1.615771119647462</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.914530779221874</v>
@@ -26226,7 +26178,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.584399871298268</v>
+        <v>1.62331608286343</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.95475583306453</v>
@@ -26315,7 +26267,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.60597971687607</v>
+        <v>1.644034082824478</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.458974449799278</v>
@@ -26404,7 +26356,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.613130154765588</v>
+        <v>1.651488848465624</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.974774362827945</v>
@@ -26493,7 +26445,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.609684041931762</v>
+        <v>1.649750027777281</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.903948756026731</v>
@@ -26582,7 +26534,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.627917769830921</v>
+        <v>1.668670965031547</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.721405699074914</v>
@@ -26671,7 +26623,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.665611958374004</v>
+        <v>1.710898090260752</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.706055903161033</v>
@@ -26760,7 +26712,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.671456259227797</v>
+        <v>1.710912351594145</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.985950379904207</v>
@@ -26849,7 +26801,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.701844125281508</v>
+        <v>1.749677202381235</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.713792980591423</v>
@@ -26938,7 +26890,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.710565216908069</v>
+        <v>1.758013195518351</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.783544475623624</v>
@@ -27027,7 +26979,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.726926312609217</v>
+        <v>1.776747168333565</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.10931746903826</v>
@@ -27116,7 +27068,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.709850217400758</v>
+        <v>1.759233671444268</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.214092160232338</v>
@@ -27205,7 +27157,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.691530088520037</v>
+        <v>1.736566384173566</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.432830632041364</v>
@@ -27294,7 +27246,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.731697049807633</v>
+        <v>1.778257738124951</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.649499604878051</v>
@@ -27383,7 +27335,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.737768780361085</v>
+        <v>1.782141263217363</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.189675198695147</v>
@@ -27472,7 +27424,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.74205527394783</v>
+        <v>1.786090376275322</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.166160687792333</v>
@@ -27561,7 +27513,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.723808564843448</v>
+        <v>1.768576251160799</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.305150607284942</v>
@@ -27650,7 +27602,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.736984615951315</v>
+        <v>1.782071807253779</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.16713476292367</v>
@@ -27739,7 +27691,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.747267154086563</v>
+        <v>1.79108855511951</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.21634343742966</v>
@@ -27828,7 +27780,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.732025375171353</v>
+        <v>1.773038875870025</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.678793367727956</v>
@@ -27917,7 +27869,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.732426465220835</v>
+        <v>1.774245949417906</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.558913427681006</v>
@@ -28006,7 +27958,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.747790469270889</v>
+        <v>1.789598332685255</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.20818144420177</v>
@@ -28095,7 +28047,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.756953825798858</v>
+        <v>1.795247000119685</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.622476047307635</v>
@@ -28184,7 +28136,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.753090790370309</v>
+        <v>1.788745591219538</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.32505156001734</v>
@@ -28273,7 +28225,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.764194239078216</v>
+        <v>1.793974919099726</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.303314070870329</v>
@@ -28362,7 +28314,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.745582283301967</v>
+        <v>1.775068592098811</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.913041029227869</v>
@@ -28451,7 +28403,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.77702057316861</v>
+        <v>1.810792482198904</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.39941659203705</v>
@@ -28540,7 +28492,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.80069139940611</v>
+        <v>1.836977187132734</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.408559198055753</v>
@@ -28629,7 +28581,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.808930038936618</v>
+        <v>1.845284198792166</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.66511929600019</v>
@@ -28718,7 +28670,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.827488484996455</v>
+        <v>1.862104467938713</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.363401179986978</v>
@@ -28807,7 +28759,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.834749537037512</v>
+        <v>1.869213965460223</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.622769831232703</v>
@@ -28896,7 +28848,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.83051348955204</v>
+        <v>1.861800672438545</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.316573647419105</v>
@@ -28985,7 +28937,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.825962083525839</v>
+        <v>1.855801841893812</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.300475759473232</v>
@@ -29074,7 +29026,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.800491645850656</v>
+        <v>1.829566917874108</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.241435162052997</v>
@@ -29163,7 +29115,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.815540922961917</v>
+        <v>1.840433432159191</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.1963724096604</v>
@@ -29252,7 +29204,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.833018735507203</v>
+        <v>1.853674617032289</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.619797084614473</v>
@@ -29341,7 +29293,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.830179012184516</v>
+        <v>1.848549550559671</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.167134834465308</v>
@@ -29430,7 +29382,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.84060104556264</v>
+        <v>1.855589405990152</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.177196769120727</v>
@@ -29519,7 +29471,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.850110139837271</v>
+        <v>1.86421001232003</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.413828573820572</v>
@@ -29608,7 +29560,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.829744946094097</v>
+        <v>1.846181975451769</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.226427118323281</v>
@@ -29697,7 +29649,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.821664611025889</v>
+        <v>1.841484891215656</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.291295295054499</v>
@@ -29786,7 +29738,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.813285410739031</v>
+        <v>1.830922449203592</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.230706638605636</v>
@@ -29875,7 +29827,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.810694002294491</v>
+        <v>1.829524743309854</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.239606086906893</v>
